--- a/fine_tuning/training_summary_acl_pos.xlsx
+++ b/fine_tuning/training_summary_acl_pos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>training_lang</t>
   </si>
@@ -112,10 +112,10 @@
     <t>tf-xlm-roberta-base</t>
   </si>
   <si>
-    <t>7:50:26</t>
-  </si>
-  <si>
-    <t>1 day, 9:56:13</t>
+    <t>4:36:13</t>
+  </si>
+  <si>
+    <t>4:34:30</t>
   </si>
   <si>
     <t>2:32:48</t>
@@ -154,13 +154,16 @@
     <t>0:57:30</t>
   </si>
   <si>
+    <t>1:33:53</t>
+  </si>
+  <si>
     <t>0:38:27</t>
   </si>
   <si>
-    <t>1:33:53</t>
-  </si>
-  <si>
     <t>4:58:54</t>
+  </si>
+  <si>
+    <t>3:30:44</t>
   </si>
   <si>
     <t>2:29:43</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,31 +630,31 @@
         <v>256</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>2E-05</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>0.9910990123208409</v>
+        <v>0.9971439494456563</v>
       </c>
       <c r="I2">
-        <v>0.9830304244271751</v>
+        <v>0.9802042483404431</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
       </c>
       <c r="K2">
-        <v>153035</v>
+        <v>38102</v>
       </c>
       <c r="L2">
-        <v>28.9643349560558</v>
+        <v>29.22009343341557</v>
       </c>
       <c r="M2">
-        <v>153035</v>
+        <v>38102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -668,31 +671,31 @@
         <v>256</v>
       </c>
       <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>2E-05</v>
+      </c>
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>2E-05</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
       <c r="H3">
-        <v>0.9952989036585751</v>
+        <v>0.9960674355447395</v>
       </c>
       <c r="I3">
-        <v>0.982676761195945</v>
+        <v>0.9757005192276996</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
       </c>
       <c r="K3">
-        <v>153035</v>
+        <v>38102</v>
       </c>
       <c r="L3">
-        <v>28.50845884928284</v>
+        <v>28.64248595874232</v>
       </c>
       <c r="M3">
-        <v>153035</v>
+        <v>38102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1195,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>256</v>
@@ -1207,13 +1210,13 @@
         <v>2E-05</v>
       </c>
       <c r="G16">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H16">
-        <v>0.999730312837109</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9565345080763583</v>
+        <v>0.9613313754282917</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
@@ -1222,7 +1225,7 @@
         <v>656</v>
       </c>
       <c r="L16">
-        <v>44.11432926829269</v>
+        <v>38.50457317073171</v>
       </c>
       <c r="M16">
         <v>656</v>
@@ -1236,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>256</v>
@@ -1248,13 +1251,13 @@
         <v>2E-05</v>
       </c>
       <c r="G17">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.999730312837109</v>
       </c>
       <c r="I17">
-        <v>0.9613313754282917</v>
+        <v>0.9565345080763583</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -1263,7 +1266,7 @@
         <v>656</v>
       </c>
       <c r="L17">
-        <v>38.50457317073171</v>
+        <v>44.11432926829269</v>
       </c>
       <c r="M17">
         <v>656</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -1330,25 +1333,25 @@
         <v>2E-05</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H19">
-        <v>0.9917093759421164</v>
+        <v>0.9917486355647375</v>
       </c>
       <c r="I19">
-        <v>0.9501971363353393</v>
+        <v>0.9692366958340213</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>5396</v>
+        <v>12217</v>
       </c>
       <c r="L19">
-        <v>24.1098962194218</v>
+        <v>26.07129409838749</v>
       </c>
       <c r="M19">
-        <v>5396</v>
+        <v>12217</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>256</v>
@@ -1371,13 +1374,13 @@
         <v>2E-05</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>0.9968755995285993</v>
+        <v>0.9917093759421164</v>
       </c>
       <c r="I20">
-        <v>0.9516497198588919</v>
+        <v>0.9501971363353393</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
@@ -1386,7 +1389,7 @@
         <v>5396</v>
       </c>
       <c r="L20">
-        <v>25.98128243143069</v>
+        <v>24.1098962194218</v>
       </c>
       <c r="M20">
         <v>5396</v>
@@ -1394,7 +1397,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -1412,25 +1415,25 @@
         <v>2E-05</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>0.9854341094162175</v>
+        <v>0.9968755995285993</v>
       </c>
       <c r="I21">
-        <v>0.9630904343698078</v>
+        <v>0.9516497198588919</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>23010</v>
+        <v>5396</v>
       </c>
       <c r="L21">
-        <v>29.24810951760104</v>
+        <v>25.98128243143069</v>
       </c>
       <c r="M21">
-        <v>23010</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1441,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>256</v>
@@ -1453,13 +1456,13 @@
         <v>2E-05</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>0.9927271745950359</v>
+        <v>0.9854341094162175</v>
       </c>
       <c r="I22">
-        <v>0.9594113458343223</v>
+        <v>0.9630904343698078</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
@@ -1468,7 +1471,7 @@
         <v>23010</v>
       </c>
       <c r="L22">
-        <v>27.28348544111256</v>
+        <v>29.24810951760104</v>
       </c>
       <c r="M22">
         <v>23010</v>
@@ -1476,13 +1479,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>256</v>
@@ -1494,25 +1497,25 @@
         <v>2E-05</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H23">
-        <v>0.9972295530265939</v>
+        <v>0.9927271745950359</v>
       </c>
       <c r="I23">
-        <v>0.9752667714451154</v>
+        <v>0.9594113458343223</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>7027</v>
+        <v>23010</v>
       </c>
       <c r="L23">
-        <v>34.95318058915611</v>
+        <v>27.28348544111256</v>
       </c>
       <c r="M23">
-        <v>7027</v>
+        <v>23010</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1523,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>256</v>
@@ -1535,13 +1538,13 @@
         <v>2E-05</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>0.9955782089356032</v>
+        <v>0.9972295530265939</v>
       </c>
       <c r="I24">
-        <v>0.9785755645628257</v>
+        <v>0.9752667714451154</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -1550,7 +1553,7 @@
         <v>7027</v>
       </c>
       <c r="L24">
-        <v>51.53550590579194</v>
+        <v>34.95318058915611</v>
       </c>
       <c r="M24">
         <v>7027</v>
@@ -1558,7 +1561,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -1576,25 +1579,25 @@
         <v>2E-05</v>
       </c>
       <c r="G25">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>0.9880980042857511</v>
+        <v>0.9955782089356032</v>
       </c>
       <c r="I25">
-        <v>0.9351115421920465</v>
+        <v>0.9785755645628257</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
       </c>
       <c r="K25">
-        <v>3664</v>
+        <v>7027</v>
       </c>
       <c r="L25">
-        <v>18.59661572052402</v>
+        <v>51.53550590579194</v>
       </c>
       <c r="M25">
-        <v>3664</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1605,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>256</v>
@@ -1617,13 +1620,13 @@
         <v>2E-05</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>0.9993545555469496</v>
+        <v>0.9880980042857511</v>
       </c>
       <c r="I26">
-        <v>0.9414161008729389</v>
+        <v>0.9351115421920465</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
@@ -1632,7 +1635,7 @@
         <v>3664</v>
       </c>
       <c r="L26">
-        <v>21.80594978165939</v>
+        <v>18.59661572052402</v>
       </c>
       <c r="M26">
         <v>3664</v>
@@ -1640,13 +1643,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>256</v>
@@ -1658,25 +1661,25 @@
         <v>2E-05</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H27">
-        <v>0.9990709788394132</v>
+        <v>0.9993545555469496</v>
       </c>
       <c r="I27">
-        <v>0.9757158284930387</v>
+        <v>0.9414161008729389</v>
       </c>
       <c r="J27" t="s">
         <v>57</v>
       </c>
       <c r="K27">
-        <v>6075</v>
+        <v>3664</v>
       </c>
       <c r="L27">
-        <v>61.98864197530864</v>
+        <v>21.80594978165939</v>
       </c>
       <c r="M27">
-        <v>6075</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>256</v>
@@ -1699,13 +1702,13 @@
         <v>2E-05</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H28">
-        <v>0.9978084538263893</v>
+        <v>0.9990709788394132</v>
       </c>
       <c r="I28">
-        <v>0.9721725885351065</v>
+        <v>0.9757158284930387</v>
       </c>
       <c r="J28" t="s">
         <v>58</v>
@@ -1714,7 +1717,7 @@
         <v>6075</v>
       </c>
       <c r="L28">
-        <v>79.05827160493827</v>
+        <v>61.98864197530864</v>
       </c>
       <c r="M28">
         <v>6075</v>
@@ -1722,13 +1725,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>256</v>
@@ -1740,25 +1743,25 @@
         <v>2E-05</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29">
-        <v>0.9940732345145542</v>
+        <v>0.9978084538263893</v>
       </c>
       <c r="I29">
-        <v>0.9780077619663649</v>
+        <v>0.9721725885351065</v>
       </c>
       <c r="J29" t="s">
         <v>59</v>
       </c>
       <c r="K29">
-        <v>5241</v>
+        <v>6075</v>
       </c>
       <c r="L29">
-        <v>54.82655981682885</v>
+        <v>79.05827160493827</v>
       </c>
       <c r="M29">
-        <v>5241</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1769,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>256</v>
@@ -1781,13 +1784,13 @@
         <v>2E-05</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H30">
-        <v>0.995408435664709</v>
+        <v>0.9940732345145542</v>
       </c>
       <c r="I30">
-        <v>0.9754923099036941</v>
+        <v>0.9780077619663649</v>
       </c>
       <c r="J30" t="s">
         <v>60</v>
@@ -1796,7 +1799,7 @@
         <v>5241</v>
       </c>
       <c r="L30">
-        <v>61.15016218278954</v>
+        <v>54.82655981682885</v>
       </c>
       <c r="M30">
         <v>5241</v>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -1816,31 +1819,31 @@
         <v>256</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>2E-05</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>0.9940285373059274</v>
+        <v>0.995408435664709</v>
       </c>
       <c r="I31">
-        <v>0.8080104484109708</v>
+        <v>0.9754923099036941</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
       </c>
       <c r="K31">
-        <v>997</v>
+        <v>5241</v>
       </c>
       <c r="L31">
-        <v>31.53961885656971</v>
+        <v>61.15016218278954</v>
       </c>
       <c r="M31">
-        <v>997</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1851,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>256</v>
@@ -1863,13 +1866,13 @@
         <v>2E-05</v>
       </c>
       <c r="G32">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H32">
-        <v>0.9900685146772267</v>
+        <v>0.9940285373059274</v>
       </c>
       <c r="I32">
-        <v>0.8071397474967349</v>
+        <v>0.8080104484109708</v>
       </c>
       <c r="J32" t="s">
         <v>62</v>
@@ -1878,7 +1881,7 @@
         <v>997</v>
       </c>
       <c r="L32">
-        <v>26.89969909729188</v>
+        <v>31.53961885656971</v>
       </c>
       <c r="M32">
         <v>997</v>
@@ -1886,7 +1889,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -1904,25 +1907,25 @@
         <v>2E-05</v>
       </c>
       <c r="G33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>0.9989510489510489</v>
+        <v>0.9900685146772267</v>
       </c>
       <c r="I33">
-        <v>0.936722499755118</v>
+        <v>0.8071397474967349</v>
       </c>
       <c r="J33" t="s">
         <v>63</v>
       </c>
       <c r="K33">
-        <v>1123</v>
+        <v>997</v>
       </c>
       <c r="L33">
-        <v>46.66518254674978</v>
+        <v>26.89969909729188</v>
       </c>
       <c r="M33">
-        <v>1123</v>
+        <v>997</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1933,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>256</v>
@@ -1945,13 +1948,13 @@
         <v>2E-05</v>
       </c>
       <c r="G34">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>0.9991695804195804</v>
+        <v>0.9989510489510489</v>
       </c>
       <c r="I34">
-        <v>0.9383876971299834</v>
+        <v>0.936722499755118</v>
       </c>
       <c r="J34" t="s">
         <v>64</v>
@@ -1960,9 +1963,50 @@
         <v>1123</v>
       </c>
       <c r="L34">
+        <v>46.66518254674978</v>
+      </c>
+      <c r="M34">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>256</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>2E-05</v>
+      </c>
+      <c r="G35">
+        <v>48</v>
+      </c>
+      <c r="H35">
+        <v>0.9991695804195804</v>
+      </c>
+      <c r="I35">
+        <v>0.9383876971299834</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>1123</v>
+      </c>
+      <c r="L35">
         <v>44.76135351736421</v>
       </c>
-      <c r="M34">
+      <c r="M35">
         <v>1123</v>
       </c>
     </row>

--- a/fine_tuning/training_summary_acl_pos.xlsx
+++ b/fine_tuning/training_summary_acl_pos.xlsx
@@ -154,10 +154,10 @@
     <t>0:57:30</t>
   </si>
   <si>
-    <t>1:33:53</t>
-  </si>
-  <si>
-    <t>0:38:27</t>
+    <t>2:55:24</t>
+  </si>
+  <si>
+    <t>1:42:48</t>
   </si>
   <si>
     <t>4:58:54</t>
@@ -1210,25 +1210,25 @@
         <v>2E-05</v>
       </c>
       <c r="G16">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.9984281898500103</v>
       </c>
       <c r="I16">
-        <v>0.9613313754282917</v>
+        <v>0.9263399936568347</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
       <c r="K16">
-        <v>656</v>
+        <v>4477</v>
       </c>
       <c r="L16">
-        <v>38.50457317073171</v>
+        <v>30.17176680813045</v>
       </c>
       <c r="M16">
-        <v>656</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1245,31 +1245,31 @@
         <v>256</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>2E-05</v>
       </c>
       <c r="G17">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>0.999730312837109</v>
+        <v>0.9844664773251581</v>
       </c>
       <c r="I17">
-        <v>0.9565345080763583</v>
+        <v>0.9276086267047257</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>656</v>
+        <v>4477</v>
       </c>
       <c r="L17">
-        <v>44.11432926829269</v>
+        <v>30.61000670091579</v>
       </c>
       <c r="M17">
-        <v>656</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="18" spans="1:13">
